--- a/content/drafts/entitats/Secretaries.xlsx
+++ b/content/drafts/entitats/Secretaries.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LAYATSAL\Generalitat de Catalunya\Franco Castanys, Llorenç - 2019 - Dades de referència\__C6\01.CATaleg\10.Modelatge_OIAD\11.Secretaries\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gencat-my.sharepoint.com/personal/llorenc_franco_gencat_cat/Documents/01 - CTTI/Gestió interna/Treball remot/2019 - Dades de referència/__C6/01.CATaleg/10.Modelatge_OIAD/11.Secretaries/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="196" documentId="13_ncr:1_{4940BD87-9827-4757-A61E-79D0133DCAB6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{29C2759B-ED4F-44BB-B2CA-BC0FE30B89C3}"/>
+  <xr:revisionPtr revIDLastSave="197" documentId="13_ncr:1_{4940BD87-9827-4757-A61E-79D0133DCAB6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{547E5F1A-918F-4E0D-9836-1C7CBD5397EB}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-1152" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Secretaries" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="43">
   <si>
     <t>Nom</t>
   </si>
@@ -144,9 +144,6 @@
   </si>
   <si>
     <t>Oficina de Drets Civils i Polítics</t>
-  </si>
-  <si>
-    <t>Presidència del Consell Català de Formació Professional</t>
   </si>
   <si>
     <t>Secretaria d'Administració i Funció Pública</t>
@@ -358,7 +355,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla1" displayName="Tabla1" ref="A3:C48" totalsRowShown="0" dataDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla1" displayName="Tabla1" ref="A3:C47" totalsRowShown="0" dataDxfId="3">
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Id" dataDxfId="2"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Nom" dataDxfId="1" dataCellStyle="Normal_Hoja2"/>
@@ -631,7 +628,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C48"/>
+  <dimension ref="A1:C47"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
@@ -645,7 +642,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>27</v>
@@ -659,7 +656,7 @@
         <v>0</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
@@ -686,7 +683,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>31</v>
@@ -730,7 +727,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>32</v>
@@ -796,7 +793,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B16" s="8" t="s">
         <v>35</v>
@@ -883,22 +880,22 @@
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A24" s="3">
-        <v>10187</v>
-      </c>
-      <c r="B24" s="8" t="s">
-        <v>37</v>
+      <c r="A24">
+        <v>2811</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>34</v>
       </c>
       <c r="C24" s="3">
-        <v>1599</v>
+        <v>2803</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25">
-        <v>2811</v>
-      </c>
-      <c r="B25" s="10" t="s">
-        <v>34</v>
+        <v>13827</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>10</v>
       </c>
       <c r="C25" s="3">
         <v>2803</v>
@@ -906,32 +903,32 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26">
-        <v>13827</v>
+        <v>19029</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C26" s="3">
         <v>2803</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A27">
-        <v>19029</v>
+      <c r="A27" s="3">
+        <v>3399</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="C27" s="3">
-        <v>2803</v>
+        <v>3392</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A28" s="3">
-        <v>3399</v>
+      <c r="A28">
+        <v>12660</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="C28" s="3">
         <v>3392</v>
@@ -939,10 +936,10 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29">
-        <v>12660</v>
+        <v>18120</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C29" s="3">
         <v>3392</v>
@@ -950,43 +947,43 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30">
-        <v>18120</v>
+        <v>18119</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C30" s="3">
         <v>3392</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A31">
-        <v>18119</v>
+      <c r="A31" s="3">
+        <v>2228</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="C31" s="3">
-        <v>3392</v>
+        <v>2221</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" s="3">
-        <v>2228</v>
+        <v>13763</v>
       </c>
       <c r="B32" s="7" t="s">
         <v>34</v>
       </c>
       <c r="C32" s="3">
-        <v>2221</v>
+        <v>13757</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A33" s="3">
-        <v>13763</v>
+      <c r="A33">
+        <v>15771</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="C33" s="3">
         <v>13757</v>
@@ -994,32 +991,32 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34">
-        <v>15771</v>
+        <v>20919</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="C34" s="3">
         <v>13757</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A35">
-        <v>20919</v>
+      <c r="A35" s="3">
+        <v>19779</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C35" s="3">
-        <v>13757</v>
+        <v>19774</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A36" s="3">
-        <v>19779</v>
+      <c r="A36">
+        <v>19800</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="C36" s="3">
         <v>19774</v>
@@ -1027,10 +1024,10 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37">
-        <v>19800</v>
+        <v>20853</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C37" s="3">
         <v>19774</v>
@@ -1038,32 +1035,32 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38">
-        <v>20853</v>
+        <v>11327</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C38" s="3">
         <v>19774</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A39">
-        <v>11327</v>
+      <c r="A39" s="3">
+        <v>19780</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="C39" s="3">
-        <v>19774</v>
+        <v>19775</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A40" s="3">
-        <v>19780</v>
+      <c r="A40">
+        <v>19035</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="C40" s="3">
         <v>19775</v>
@@ -1071,32 +1068,32 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41">
-        <v>19035</v>
+        <v>15728</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C41" s="3">
         <v>19775</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A42">
-        <v>15728</v>
+      <c r="A42" s="3">
+        <v>19778</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="C42" s="3">
-        <v>19775</v>
+        <v>19773</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A43" s="3">
-        <v>19778</v>
+      <c r="A43">
+        <v>19783</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="C43" s="3">
         <v>19773</v>
@@ -1104,56 +1101,45 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A44">
-        <v>19783</v>
+        <v>560</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="C44" s="3">
         <v>19773</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A45">
-        <v>560</v>
+      <c r="A45" s="3">
+        <v>4169</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C45" s="3">
-        <v>19773</v>
+        <v>4163</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A46" s="3">
-        <v>4169</v>
-      </c>
-      <c r="B46" s="7" t="s">
-        <v>34</v>
+      <c r="A46" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>21</v>
       </c>
       <c r="C46" s="3">
-        <v>4163</v>
+        <v>99998</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A47" s="3" t="s">
-        <v>24</v>
+      <c r="A47" s="6" t="s">
+        <v>25</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C47" s="3">
-        <v>99998</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A48" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B48" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C48" s="6">
+      <c r="C47" s="6">
         <v>99999</v>
       </c>
     </row>
@@ -1161,7 +1147,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="C49:C872 A6:C48" numberStoredAsText="1"/>
+    <ignoredError sqref="C48:C871 A6:C23 A24:C47" numberStoredAsText="1"/>
   </ignoredErrors>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
@@ -1170,6 +1156,24 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010008DEA6A335D5DB4C80041820F961B988" ma:contentTypeVersion="1" ma:contentTypeDescription="Crea un document nou" ma:contentTypeScope="" ma:versionID="367d9f143660f58e8d16a0b6b83542cc">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="572ac8b42f3ef587f96d641b4f387de3" ns1:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -1301,38 +1305,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CCCF087E-4840-42B0-AE1E-9DBAC680D690}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BF65D252-1908-44E2-BB35-08282169E652}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1354,9 +1330,19 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BF65D252-1908-44E2-BB35-08282169E652}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CCCF087E-4840-42B0-AE1E-9DBAC680D690}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/content/drafts/entitats/Secretaries.xlsx
+++ b/content/drafts/entitats/Secretaries.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gencat-my.sharepoint.com/personal/llorenc_franco_gencat_cat/Documents/01 - CTTI/Gestió interna/Treball remot/2019 - Dades de referència/__C6/01.CATaleg/10.Modelatge_OIAD/11.Secretaries/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="197" documentId="13_ncr:1_{4940BD87-9827-4757-A61E-79D0133DCAB6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{547E5F1A-918F-4E0D-9836-1C7CBD5397EB}"/>
+  <xr:revisionPtr revIDLastSave="253" documentId="13_ncr:1_{4940BD87-9827-4757-A61E-79D0133DCAB6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{D32F08B3-DDB1-4CC1-875E-BA99726FF8D3}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Secretaries" sheetId="1" r:id="rId1"/>
@@ -33,120 +33,216 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="82">
   <si>
     <t>Nom</t>
   </si>
   <si>
-    <t>Secretaria d'Administracions Locals i de Relacions amb l'Aran</t>
-  </si>
-  <si>
-    <t>Secretaria de Comunicació del Govern i Mitjans de Comunicació</t>
-  </si>
-  <si>
     <t>Secretaria General de l'Esport i de l'Activitat Física</t>
   </si>
   <si>
-    <t>Secretaria d'Economia</t>
+    <t>Secretaria d'Atenció Sanitària i Participació</t>
+  </si>
+  <si>
+    <t>Secretaria de Salut Pública</t>
+  </si>
+  <si>
+    <t>Secretaria d'Afers Socials i Famílies</t>
+  </si>
+  <si>
+    <t>Secretaria d'Infància, Adolescència i Joventut</t>
+  </si>
+  <si>
+    <t>Secretaria d'Empresa i Competitivitat</t>
+  </si>
+  <si>
+    <t>Secretaria de Polítiques Digitals</t>
+  </si>
+  <si>
+    <t>No consta</t>
+  </si>
+  <si>
+    <t>Altres/Diversos</t>
+  </si>
+  <si>
+    <t>99998</t>
+  </si>
+  <si>
+    <t>99999</t>
+  </si>
+  <si>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>Secretaries</t>
+  </si>
+  <si>
+    <t>Secretaria General de la Presidència</t>
+  </si>
+  <si>
+    <t>Secretaria de Mesures Penals, Reinserció i Atenció a la Víctima</t>
+  </si>
+  <si>
+    <t>Secretaria del Govern</t>
+  </si>
+  <si>
+    <t>Departament_id</t>
+  </si>
+  <si>
+    <t>Nom entitat:</t>
+  </si>
+  <si>
+    <t>Secretaria de Mitjans de Comunicació</t>
+  </si>
+  <si>
+    <t>Departament de la Presidència</t>
+  </si>
+  <si>
+    <t>Secretaria de Governs Locals i de Relacions amb l'Aran</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Secretaria d'Administració i Funció Pública </t>
+  </si>
+  <si>
+    <t>Secretaria de Transformació Educativa</t>
+  </si>
+  <si>
+    <t>Departament d'Educació</t>
+  </si>
+  <si>
+    <t>Secretaria General d'Educació</t>
+  </si>
+  <si>
+    <t>Secretaria de Política Lingüística</t>
+  </si>
+  <si>
+    <t>Departament de Cultura</t>
+  </si>
+  <si>
+    <t>Secretaria General de Cultura</t>
+  </si>
+  <si>
+    <t>Departament de Salut</t>
+  </si>
+  <si>
+    <t>Secretaria General de la Vicepresidència i de Polítiques Digitals i Territori</t>
+  </si>
+  <si>
+    <t>Departament de la Vicepresidència i de Polítiques Digitals i Territori</t>
+  </si>
+  <si>
+    <t>Secretaria de Territori i Mobilitat</t>
+  </si>
+  <si>
+    <t>Secretaria d'Acció Climàtica</t>
+  </si>
+  <si>
+    <t>Departament d'Acció Climàtica, Alimentació i Agenda Rural</t>
+  </si>
+  <si>
+    <t>Secretaria General d'Acció Climàtica, Alimentació i Agenda Rural</t>
+  </si>
+  <si>
+    <t>Secretaria per a l'Administració de Justícia</t>
+  </si>
+  <si>
+    <t>Departament de Justícia</t>
+  </si>
+  <si>
+    <t>Secretaria General de Justícia</t>
+  </si>
+  <si>
+    <t>Secretaria General d'Interior</t>
+  </si>
+  <si>
+    <t>Departament d'Interior</t>
+  </si>
+  <si>
+    <t>Departament d'Acció Exterior i Govern Obert</t>
+  </si>
+  <si>
+    <t>Secretaria d'Acció Exterior del Govern</t>
+  </si>
+  <si>
+    <t>Secretaria de Govern Obert</t>
+  </si>
+  <si>
+    <t>Secretaria General d'Economia i Hisenda</t>
+  </si>
+  <si>
+    <t>Departament d'Economia i Hisenda</t>
+  </si>
+  <si>
+    <t>Secretaria d'Afers Econòmics i Fons Europeus</t>
+  </si>
+  <si>
+    <t>Departament de Drets Socials</t>
+  </si>
+  <si>
+    <t>Secretaria d'Habitatge i Inclusió Social</t>
+  </si>
+  <si>
+    <t>Secretaria General de Drets Socials</t>
+  </si>
+  <si>
+    <t>Secretaria General d'Empresa i Treball</t>
+  </si>
+  <si>
+    <t>Departament d'Empresa i Treball</t>
+  </si>
+  <si>
+    <t>Secretaria de Treball</t>
+  </si>
+  <si>
+    <t>Secretaria General d'Igualtat i Feminismes</t>
+  </si>
+  <si>
+    <t>Departament d'Igualtat i Feminismes</t>
+  </si>
+  <si>
+    <t>Secretaria de Feminismes</t>
+  </si>
+  <si>
+    <t>Secretaria d'Igualtats</t>
+  </si>
+  <si>
+    <t>Secretaria General de Recerca i Universitats</t>
+  </si>
+  <si>
+    <t>Departament de Recerca i Universitats</t>
+  </si>
+  <si>
+    <t>Departament Nom</t>
+  </si>
+  <si>
+    <t>Oficina d'Estratègia i Comunicació del President o Presidenta i del Govern</t>
+  </si>
+  <si>
+    <t>Gabinet Jurídic de la Generalitat</t>
+  </si>
+  <si>
+    <t>Institut d'Estudis de l'Autogovern</t>
+  </si>
+  <si>
+    <t>Delegació del Govern de la Generalitat a Madrid</t>
+  </si>
+  <si>
+    <t>Secretaria d'Estratègia, Informació i Coordinació Territorial</t>
+  </si>
+  <si>
+    <t>Secretaria d'Alimentació</t>
+  </si>
+  <si>
+    <t>Secretaria d'Agenda Rural</t>
   </si>
   <si>
     <t>Secretaria d'Hisenda</t>
   </si>
   <si>
-    <t>Secretaria de Difusió i Atenció Ciutadana</t>
-  </si>
-  <si>
-    <t>Secretaria d'Acció Exterior i de la Unió Europea</t>
-  </si>
-  <si>
-    <t>Secretaria de Transparència i Govern Obert</t>
-  </si>
-  <si>
-    <t>Secretaria de Polítiques Educatives</t>
-  </si>
-  <si>
-    <t>Secretaria d'Atenció Sanitària i Participació</t>
-  </si>
-  <si>
-    <t>Secretaria de Salut Pública</t>
-  </si>
-  <si>
-    <t>Secretaria d'Infraestructures i Mobilitat</t>
-  </si>
-  <si>
-    <t>Secretaria de Medi Ambient i Sostenibilitat</t>
-  </si>
-  <si>
-    <t>Secretaria de Relacions amb l'Administració de Justícia</t>
-  </si>
-  <si>
-    <t>Secretaria d'Afers Socials i Famílies</t>
-  </si>
-  <si>
-    <t>Secretaria d'Igualtat, Migracions i Ciutadania</t>
-  </si>
-  <si>
-    <t>Secretaria d'Infància, Adolescència i Joventut</t>
-  </si>
-  <si>
-    <t>Secretaria d'Empresa i Competitivitat</t>
-  </si>
-  <si>
-    <t>Secretaria d'Universitats i Recerca</t>
-  </si>
-  <si>
-    <t>Secretaria de Polítiques Digitals</t>
-  </si>
-  <si>
-    <t>No consta</t>
-  </si>
-  <si>
-    <t>Altres/Diversos</t>
-  </si>
-  <si>
-    <t>Secretaria de l'Agenda Urbana i Territori</t>
-  </si>
-  <si>
-    <t>99998</t>
-  </si>
-  <si>
-    <t>99999</t>
-  </si>
-  <si>
-    <t>Id</t>
-  </si>
-  <si>
-    <t>Secretaries</t>
-  </si>
-  <si>
-    <t>Secretaria General de la Presidència</t>
-  </si>
-  <si>
-    <t>Secretaria de Mesures Penals, Reinserció i Atenció a la Víctima</t>
-  </si>
-  <si>
-    <t>Secretaria del Govern</t>
-  </si>
-  <si>
-    <t>Gabinet Jurídic de la Generalitat</t>
-  </si>
-  <si>
-    <t>Institut d'Estudis de l'Autogovern</t>
-  </si>
-  <si>
-    <t>Delegació del Govern de la Generalitat a Madrid</t>
-  </si>
-  <si>
-    <t>Secretaria General</t>
-  </si>
-  <si>
     <t>Intervenció General</t>
   </si>
   <si>
-    <t>Oficina de Drets Civils i Polítics</t>
-  </si>
-  <si>
-    <t>Secretaria d'Administració i Funció Pública</t>
+    <t>Secretaria de Difusió</t>
   </si>
   <si>
     <t>629</t>
@@ -155,20 +251,41 @@
     <t>556</t>
   </si>
   <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>21654</t>
+  </si>
+  <si>
+    <t>Secretaria General de Salut</t>
+  </si>
+  <si>
+    <t>21671</t>
+  </si>
+  <si>
+    <t>21708</t>
+  </si>
+  <si>
+    <t>11291</t>
+  </si>
+  <si>
+    <t>19026</t>
+  </si>
+  <si>
     <t>1363</t>
   </si>
   <si>
-    <t>Departament_id</t>
-  </si>
-  <si>
-    <t>Nom entitat:</t>
+    <t>19782</t>
+  </si>
+  <si>
+    <t>Secretaria General d'Acció Exterior i Govern Obert</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -196,8 +313,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -210,8 +334,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -230,12 +360,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="22"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -250,17 +389,35 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal_Hoja2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="5">
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0" tint="-0.499984740745262"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -355,11 +512,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla1" displayName="Tabla1" ref="A3:C47" totalsRowShown="0" dataDxfId="3">
-  <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Id" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Nom" dataDxfId="1" dataCellStyle="Normal_Hoja2"/>
-    <tableColumn id="3" xr3:uid="{154C1BCD-3DA7-49B3-B59D-DDC0889D62F5}" name="Departament_id" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla1" displayName="Tabla1" ref="A3:D53" totalsRowShown="0" dataDxfId="4">
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Id" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Nom" dataDxfId="2" dataCellStyle="Normal_Hoja2"/>
+    <tableColumn id="3" xr3:uid="{154C1BCD-3DA7-49B3-B59D-DDC0889D62F5}" name="Departament_id" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{B35E2209-D65C-48CC-A885-DC5A9C69EE6C}" name="Departament Nom" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -628,526 +786,746 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C47"/>
+  <dimension ref="A1:D53"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="74.1796875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="16.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="11.453125" style="2"/>
+    <col min="1" max="1" width="11.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="74.21875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="16.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="60.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="11.44140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+        <v>17</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>14</v>
+        <v>19781</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="C4" s="3">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D4" s="12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>10828</v>
+        <v>19033</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="C5" s="3">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" s="3" t="s">
-        <v>38</v>
+      <c r="D5" s="12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="3">
+        <v>560</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="C6" s="3">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D6" s="12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>19781</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>2</v>
+        <v>2558</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>1</v>
       </c>
       <c r="C7" s="3">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D7" s="12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>2558</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>3</v>
+        <v>14</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="C8" s="3">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D8" s="12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>19033</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>1</v>
+        <v>10828</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>16</v>
       </c>
       <c r="C9" s="3">
         <v>6</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D9" s="12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>39</v>
+        <v>73</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="C10" s="3">
         <v>6</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A11">
-        <v>11</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>33</v>
+      <c r="D10" s="12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>61</v>
       </c>
       <c r="C11" s="3">
         <v>6</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A12">
+      <c r="D11" s="12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C12" s="3">
+        <v>6</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C13" s="3">
+        <v>6</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3">
+        <v>15417</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="3">
+        <v>1599</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>1606</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="3">
+        <v>1599</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>15755</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="3">
+        <v>2221</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>2228</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="3">
+        <v>2221</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>2811</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="C18" s="3">
+        <v>2803</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>13827</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C19" s="3">
+        <v>2803</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="3">
+        <v>19029</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20" s="3">
+        <v>2803</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="3">
+        <v>3399</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" s="3">
+        <v>3392</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>19783</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" s="3">
+        <v>3392</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>12660</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C23" s="3">
+        <v>3392</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C24" s="3">
+        <v>3392</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>18120</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C25" s="3">
+        <v>4163</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="3">
+        <v>4169</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C26" s="3">
+        <v>4163</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C27" s="3">
+        <v>4163</v>
+      </c>
+      <c r="D27" s="12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C28" s="3">
+        <v>4163</v>
+      </c>
+      <c r="D28" s="12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>15771</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C29" s="3">
+        <v>13757</v>
+      </c>
+      <c r="D29" s="12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>20919</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C30" s="3">
+        <v>13757</v>
+      </c>
+      <c r="D30" s="12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>13763</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C31" s="3">
+        <v>13757</v>
+      </c>
+      <c r="D31" s="12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" s="3">
+        <v>15650</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C32" s="3">
+        <v>13760</v>
+      </c>
+      <c r="D32" s="12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>19776</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="C33" s="3">
+        <v>19769</v>
+      </c>
+      <c r="D33" s="12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>13801</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C34" s="3">
+        <v>19769</v>
+      </c>
+      <c r="D34" s="12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" s="3">
+        <v>19794</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C35" s="3">
+        <v>19769</v>
+      </c>
+      <c r="D35" s="12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36">
         <v>19777</v>
       </c>
-      <c r="B12" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C12" s="3">
+      <c r="B36" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C36" s="3">
         <v>19772</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A13">
+      <c r="D36" s="12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37">
         <v>19787</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B37" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C37" s="3">
+        <v>19772</v>
+      </c>
+      <c r="D37" s="12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C38" s="3">
+        <v>19772</v>
+      </c>
+      <c r="D38" s="12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C39" s="3">
+        <v>19772</v>
+      </c>
+      <c r="D39" s="12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C40" s="3">
+        <v>19772</v>
+      </c>
+      <c r="D40" s="12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>19800</v>
+      </c>
+      <c r="B41" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C13" s="3">
-        <v>19772</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A14">
-        <v>19026</v>
-      </c>
-      <c r="B14" s="7" t="s">
+      <c r="C41" s="3">
+        <v>19774</v>
+      </c>
+      <c r="D41" s="12" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" s="3">
+        <v>20853</v>
+      </c>
+      <c r="B42" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="3">
-        <v>19772</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A15">
-        <v>19782</v>
-      </c>
-      <c r="B15" s="7" t="s">
+      <c r="C42" s="3">
+        <v>19774</v>
+      </c>
+      <c r="D42" s="12" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>21702</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C43" s="3">
+        <v>19774</v>
+      </c>
+      <c r="D43" s="12" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>19779</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C44" s="3">
+        <v>19774</v>
+      </c>
+      <c r="D44" s="12" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" s="3">
+        <v>19780</v>
+      </c>
+      <c r="B45" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C45" s="3">
+        <v>19775</v>
+      </c>
+      <c r="D45" s="12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>19035</v>
+      </c>
+      <c r="B46" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C15" s="3">
-        <v>19772</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A16" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="C16" s="3">
-        <v>19772</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A17" s="3">
-        <v>20431</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="C17" s="3">
-        <v>19772</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A18" s="3">
-        <v>19776</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C18" s="3">
-        <v>19769</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A19">
-        <v>13801</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C19" s="3">
-        <v>19769</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A20">
-        <v>19794</v>
-      </c>
-      <c r="B20" s="7" t="s">
+      <c r="C46" s="3">
+        <v>19775</v>
+      </c>
+      <c r="D46" s="12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>21662</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C47" s="3">
+        <v>19775</v>
+      </c>
+      <c r="D47" s="12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48" s="3">
+        <v>21649</v>
+      </c>
+      <c r="B48" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C48" s="3">
+        <v>21647</v>
+      </c>
+      <c r="D48" s="12" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49" s="3">
+        <v>21675</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C49" s="3">
+        <v>21647</v>
+      </c>
+      <c r="D49" s="12" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50" s="6">
+        <v>21674</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C50" s="6">
+        <v>21647</v>
+      </c>
+      <c r="D50" s="12" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51" s="3">
+        <v>15728</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C51" s="3">
+        <v>21648</v>
+      </c>
+      <c r="D51" s="12" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B52" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C20" s="3">
-        <v>19769</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A21" s="3">
-        <v>15650</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C21" s="3">
-        <v>13760</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A22" s="3">
-        <v>1606</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C22" s="3">
-        <v>1599</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A23">
-        <v>15417</v>
-      </c>
-      <c r="B23" s="7" t="s">
+      <c r="C52" s="3">
+        <v>99998</v>
+      </c>
+      <c r="D52" s="12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B53" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C23" s="3">
-        <v>1599</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A24">
-        <v>2811</v>
-      </c>
-      <c r="B24" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C24" s="3">
-        <v>2803</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A25">
-        <v>13827</v>
-      </c>
-      <c r="B25" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C25" s="3">
-        <v>2803</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A26">
-        <v>19029</v>
-      </c>
-      <c r="B26" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C26" s="3">
-        <v>2803</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A27" s="3">
-        <v>3399</v>
-      </c>
-      <c r="B27" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C27" s="3">
-        <v>3392</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A28">
-        <v>12660</v>
-      </c>
-      <c r="B28" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C28" s="3">
-        <v>3392</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A29">
-        <v>18120</v>
-      </c>
-      <c r="B29" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C29" s="3">
-        <v>3392</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A30">
-        <v>18119</v>
-      </c>
-      <c r="B30" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C30" s="3">
-        <v>3392</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A31" s="3">
-        <v>2228</v>
-      </c>
-      <c r="B31" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C31" s="3">
-        <v>2221</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A32" s="3">
-        <v>13763</v>
-      </c>
-      <c r="B32" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C32" s="3">
-        <v>13757</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A33">
-        <v>15771</v>
-      </c>
-      <c r="B33" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C33" s="3">
-        <v>13757</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A34">
-        <v>20919</v>
-      </c>
-      <c r="B34" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C34" s="3">
-        <v>13757</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A35" s="3">
-        <v>19779</v>
-      </c>
-      <c r="B35" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C35" s="3">
-        <v>19774</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A36">
-        <v>19800</v>
-      </c>
-      <c r="B36" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C36" s="3">
-        <v>19774</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A37">
-        <v>20853</v>
-      </c>
-      <c r="B37" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C37" s="3">
-        <v>19774</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A38">
-        <v>11327</v>
-      </c>
-      <c r="B38" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C38" s="3">
-        <v>19774</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A39" s="3">
-        <v>19780</v>
-      </c>
-      <c r="B39" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C39" s="3">
-        <v>19775</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A40">
-        <v>19035</v>
-      </c>
-      <c r="B40" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C40" s="3">
-        <v>19775</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A41">
-        <v>15728</v>
-      </c>
-      <c r="B41" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C41" s="3">
-        <v>19775</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A42" s="3">
-        <v>19778</v>
-      </c>
-      <c r="B42" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C42" s="3">
-        <v>19773</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A43">
-        <v>19783</v>
-      </c>
-      <c r="B43" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C43" s="3">
-        <v>19773</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A44">
-        <v>560</v>
-      </c>
-      <c r="B44" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C44" s="3">
-        <v>19773</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A45" s="3">
-        <v>4169</v>
-      </c>
-      <c r="B45" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C45" s="3">
-        <v>4163</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A46" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B46" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C46" s="3">
-        <v>99998</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A47" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B47" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C47" s="6">
+      <c r="C53" s="6">
         <v>99999</v>
+      </c>
+      <c r="D53" s="13" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="C48:C871 A6:C23 A24:C47" numberStoredAsText="1"/>
+    <ignoredError sqref="C54:C761" numberStoredAsText="1"/>
   </ignoredErrors>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
@@ -1156,15 +1534,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
@@ -1173,7 +1542,7 @@
 </p:properties>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010008DEA6A335D5DB4C80041820F961B988" ma:contentTypeVersion="1" ma:contentTypeDescription="Crea un document nou" ma:contentTypeScope="" ma:versionID="367d9f143660f58e8d16a0b6b83542cc">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="572ac8b42f3ef587f96d641b4f387de3" ns1:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -1305,15 +1674,16 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BF65D252-1908-44E2-BB35-08282169E652}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6272B2A1-B407-4DF2-A2FE-9044F0D4B8B6}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
@@ -1329,7 +1699,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CCCF087E-4840-42B0-AE1E-9DBAC680D690}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1345,4 +1715,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BF65D252-1908-44E2-BB35-08282169E652}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/content/drafts/entitats/Secretaries.xlsx
+++ b/content/drafts/entitats/Secretaries.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gencat-my.sharepoint.com/personal/llorenc_franco_gencat_cat/Documents/01 - CTTI/Gestió interna/Treball remot/2019 - Dades de referència/__C6/01.CATaleg/10.Modelatge_OIAD/11.Secretaries/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="253" documentId="13_ncr:1_{4940BD87-9827-4757-A61E-79D0133DCAB6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{D32F08B3-DDB1-4CC1-875E-BA99726FF8D3}"/>
+  <xr:revisionPtr revIDLastSave="16" documentId="13_ncr:1_{4DBFBA37-82C6-4BCD-952D-353A91204E71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F35BF39C-F31B-40DE-9DAA-5BB7F7546D02}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="70">
   <si>
     <t>Nom</t>
   </si>
@@ -65,12 +65,6 @@
     <t>Altres/Diversos</t>
   </si>
   <si>
-    <t>99998</t>
-  </si>
-  <si>
-    <t>99999</t>
-  </si>
-  <si>
     <t>Id</t>
   </si>
   <si>
@@ -101,9 +95,6 @@
     <t>Secretaria de Governs Locals i de Relacions amb l'Aran</t>
   </si>
   <si>
-    <t xml:space="preserve">Secretaria d'Administració i Funció Pública </t>
-  </si>
-  <si>
     <t>Secretaria de Transformació Educativa</t>
   </si>
   <si>
@@ -128,12 +119,6 @@
     <t>Secretaria General de la Vicepresidència i de Polítiques Digitals i Territori</t>
   </si>
   <si>
-    <t>Departament de la Vicepresidència i de Polítiques Digitals i Territori</t>
-  </si>
-  <si>
-    <t>Secretaria de Territori i Mobilitat</t>
-  </si>
-  <si>
     <t>Secretaria d'Acció Climàtica</t>
   </si>
   <si>
@@ -146,9 +131,6 @@
     <t>Secretaria per a l'Administració de Justícia</t>
   </si>
   <si>
-    <t>Departament de Justícia</t>
-  </si>
-  <si>
     <t>Secretaria General de Justícia</t>
   </si>
   <si>
@@ -158,9 +140,6 @@
     <t>Departament d'Interior</t>
   </si>
   <si>
-    <t>Departament d'Acció Exterior i Govern Obert</t>
-  </si>
-  <si>
     <t>Secretaria d'Acció Exterior del Govern</t>
   </si>
   <si>
@@ -227,9 +206,6 @@
     <t>Delegació del Govern de la Generalitat a Madrid</t>
   </si>
   <si>
-    <t>Secretaria d'Estratègia, Informació i Coordinació Territorial</t>
-  </si>
-  <si>
     <t>Secretaria d'Alimentació</t>
   </si>
   <si>
@@ -245,40 +221,28 @@
     <t>Secretaria de Difusió</t>
   </si>
   <si>
-    <t>629</t>
-  </si>
-  <si>
-    <t>556</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>21654</t>
-  </si>
-  <si>
     <t>Secretaria General de Salut</t>
   </si>
   <si>
-    <t>21671</t>
-  </si>
-  <si>
-    <t>21708</t>
-  </si>
-  <si>
-    <t>11291</t>
-  </si>
-  <si>
-    <t>19026</t>
-  </si>
-  <si>
-    <t>1363</t>
-  </si>
-  <si>
-    <t>19782</t>
-  </si>
-  <si>
     <t>Secretaria General d'Acció Exterior i Govern Obert</t>
+  </si>
+  <si>
+    <t>Secretaria de Mobilitat i Logística</t>
+  </si>
+  <si>
+    <t>Secretaria d'Estratègia Territorial i Agenda Urbana</t>
+  </si>
+  <si>
+    <t>Secretaria d'Administració i Funció Pública</t>
+  </si>
+  <si>
+    <t>Departament de Territori</t>
+  </si>
+  <si>
+    <t>Departament d'Acció Exterior i Unió Europea</t>
+  </si>
+  <si>
+    <t>Departament de Justícia, Drets i Memòria</t>
   </si>
 </sst>
 </file>
@@ -374,7 +338,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -397,6 +361,12 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -801,24 +771,24 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -826,13 +796,13 @@
         <v>19781</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C4" s="3">
         <v>6</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -840,13 +810,13 @@
         <v>19033</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C5" s="3">
         <v>6</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -854,13 +824,13 @@
         <v>560</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>22</v>
+        <v>66</v>
       </c>
       <c r="C6" s="3">
         <v>6</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -874,7 +844,7 @@
         <v>6</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -882,13 +852,13 @@
         <v>14</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C8" s="3">
         <v>6</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -896,69 +866,69 @@
         <v>10828</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C9" s="3">
         <v>6</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
-        <v>73</v>
+      <c r="A10" s="14">
+        <v>21654</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="C10" s="3">
         <v>6</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
-        <v>70</v>
+      <c r="A11" s="14">
+        <v>629</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="C11" s="3">
         <v>6</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
-        <v>71</v>
+      <c r="A12" s="14">
+        <v>556</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="C12" s="3">
         <v>6</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
-        <v>72</v>
+      <c r="A13" s="14">
+        <v>11</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="C13" s="3">
         <v>6</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -966,13 +936,13 @@
         <v>15417</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C14" s="3">
         <v>1599</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
@@ -980,13 +950,13 @@
         <v>1606</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C15" s="3">
         <v>1599</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
@@ -994,13 +964,13 @@
         <v>15755</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C16" s="3">
         <v>2221</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
@@ -1008,13 +978,13 @@
         <v>2228</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C17" s="3">
         <v>2221</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
@@ -1022,13 +992,13 @@
         <v>2811</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="C18" s="3">
         <v>2803</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
@@ -1042,7 +1012,7 @@
         <v>2803</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
@@ -1056,7 +1026,7 @@
         <v>2803</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
@@ -1064,13 +1034,13 @@
         <v>3399</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C21" s="3">
         <v>3392</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>31</v>
+        <v>67</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
@@ -1084,7 +1054,7 @@
         <v>3392</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>31</v>
+        <v>67</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
@@ -1092,27 +1062,27 @@
         <v>12660</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="C23" s="3">
         <v>3392</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>31</v>
+        <v>67</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="3" t="s">
-        <v>75</v>
+      <c r="A24" s="14">
+        <v>21671</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C24" s="3">
         <v>3392</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>31</v>
+        <v>67</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
@@ -1120,13 +1090,13 @@
         <v>18120</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C25" s="3">
         <v>4163</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
@@ -1134,41 +1104,41 @@
         <v>4169</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C26" s="3">
         <v>4163</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="3" t="s">
-        <v>76</v>
+      <c r="A27" s="14">
+        <v>21708</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="C27" s="3">
         <v>4163</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" s="3" t="s">
-        <v>77</v>
+      <c r="A28" s="14">
+        <v>11291</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="C28" s="3">
         <v>4163</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
@@ -1176,13 +1146,13 @@
         <v>15771</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C29" s="3">
         <v>13757</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>37</v>
+        <v>69</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
@@ -1190,13 +1160,13 @@
         <v>20919</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C30" s="3">
         <v>13757</v>
       </c>
       <c r="D30" s="12" t="s">
-        <v>37</v>
+        <v>69</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
@@ -1204,13 +1174,13 @@
         <v>13763</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C31" s="3">
         <v>13757</v>
       </c>
       <c r="D31" s="12" t="s">
-        <v>37</v>
+        <v>69</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
@@ -1218,13 +1188,13 @@
         <v>15650</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C32" s="3">
         <v>13760</v>
       </c>
       <c r="D32" s="12" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
@@ -1232,13 +1202,13 @@
         <v>19776</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="C33" s="3">
         <v>19769</v>
       </c>
       <c r="D33" s="12" t="s">
-        <v>41</v>
+        <v>68</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
@@ -1246,13 +1216,13 @@
         <v>13801</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="C34" s="3">
         <v>19769</v>
       </c>
       <c r="D34" s="12" t="s">
-        <v>41</v>
+        <v>68</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
@@ -1260,13 +1230,13 @@
         <v>19794</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="C35" s="3">
         <v>19769</v>
       </c>
       <c r="D35" s="12" t="s">
-        <v>41</v>
+        <v>68</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
@@ -1274,13 +1244,13 @@
         <v>19777</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="C36" s="3">
         <v>19772</v>
       </c>
       <c r="D36" s="12" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
@@ -1288,55 +1258,55 @@
         <v>19787</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="C37" s="3">
         <v>19772</v>
       </c>
       <c r="D37" s="12" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A38" s="3" t="s">
-        <v>78</v>
+      <c r="A38" s="14">
+        <v>19026</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C38" s="3">
         <v>19772</v>
       </c>
       <c r="D38" s="12" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39" s="3" t="s">
-        <v>79</v>
+      <c r="A39" s="14">
+        <v>1363</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="C39" s="3">
         <v>19772</v>
       </c>
       <c r="D39" s="12" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A40" s="3" t="s">
-        <v>80</v>
+      <c r="A40" s="14">
+        <v>19782</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="C40" s="3">
         <v>19772</v>
       </c>
       <c r="D40" s="12" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
@@ -1350,7 +1320,7 @@
         <v>19774</v>
       </c>
       <c r="D41" s="12" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
@@ -1364,7 +1334,7 @@
         <v>19774</v>
       </c>
       <c r="D42" s="12" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
@@ -1372,13 +1342,13 @@
         <v>21702</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C43" s="3">
         <v>19774</v>
       </c>
       <c r="D43" s="12" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
@@ -1386,13 +1356,13 @@
         <v>19779</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="C44" s="3">
         <v>19774</v>
       </c>
       <c r="D44" s="12" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
@@ -1400,13 +1370,13 @@
         <v>19780</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="C45" s="3">
         <v>19775</v>
       </c>
       <c r="D45" s="12" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
@@ -1420,7 +1390,7 @@
         <v>19775</v>
       </c>
       <c r="D46" s="12" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
@@ -1428,13 +1398,13 @@
         <v>21662</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="C47" s="3">
         <v>19775</v>
       </c>
       <c r="D47" s="12" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
@@ -1442,13 +1412,13 @@
         <v>21649</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="C48" s="3">
         <v>21647</v>
       </c>
       <c r="D48" s="12" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
@@ -1456,13 +1426,13 @@
         <v>21675</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="C49" s="3">
         <v>21647</v>
       </c>
       <c r="D49" s="12" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
@@ -1470,13 +1440,13 @@
         <v>21674</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="C50" s="6">
         <v>21647</v>
       </c>
       <c r="D50" s="12" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
@@ -1484,18 +1454,18 @@
         <v>15728</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="C51" s="3">
         <v>21648</v>
       </c>
       <c r="D51" s="12" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A52" s="3" t="s">
-        <v>10</v>
+      <c r="A52" s="14">
+        <v>99998</v>
       </c>
       <c r="B52" s="5" t="s">
         <v>8</v>
@@ -1508,8 +1478,8 @@
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A53" s="6" t="s">
-        <v>11</v>
+      <c r="A53" s="15">
+        <v>99999</v>
       </c>
       <c r="B53" s="10" t="s">
         <v>9</v>

--- a/content/drafts/entitats/Secretaries.xlsx
+++ b/content/drafts/entitats/Secretaries.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gencat-my.sharepoint.com/personal/llorenc_franco_gencat_cat/Documents/01 - CTTI/Gestió interna/Treball remot/2019 - Dades de referència/__C6/01.CATaleg/10.Modelatge_OIAD/11.Secretaries/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="16" documentId="13_ncr:1_{4DBFBA37-82C6-4BCD-952D-353A91204E71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F35BF39C-F31B-40DE-9DAA-5BB7F7546D02}"/>
+  <xr:revisionPtr revIDLastSave="113" documentId="13_ncr:1_{4DBFBA37-82C6-4BCD-952D-353A91204E71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{178F5E46-CAAB-4F11-942B-CFBC739EF7E0}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="70">
   <si>
     <t>Nom</t>
   </si>
@@ -86,15 +86,9 @@
     <t>Nom entitat:</t>
   </si>
   <si>
-    <t>Secretaria de Mitjans de Comunicació</t>
-  </si>
-  <si>
     <t>Departament de la Presidència</t>
   </si>
   <si>
-    <t>Secretaria de Governs Locals i de Relacions amb l'Aran</t>
-  </si>
-  <si>
     <t>Secretaria de Transformació Educativa</t>
   </si>
   <si>
@@ -116,9 +110,6 @@
     <t>Departament de Salut</t>
   </si>
   <si>
-    <t>Secretaria General de la Vicepresidència i de Polítiques Digitals i Territori</t>
-  </si>
-  <si>
     <t>Secretaria d'Acció Climàtica</t>
   </si>
   <si>
@@ -143,9 +134,6 @@
     <t>Secretaria d'Acció Exterior del Govern</t>
   </si>
   <si>
-    <t>Secretaria de Govern Obert</t>
-  </si>
-  <si>
     <t>Secretaria General d'Economia i Hisenda</t>
   </si>
   <si>
@@ -158,9 +146,6 @@
     <t>Departament de Drets Socials</t>
   </si>
   <si>
-    <t>Secretaria d'Habitatge i Inclusió Social</t>
-  </si>
-  <si>
     <t>Secretaria General de Drets Socials</t>
   </si>
   <si>
@@ -218,21 +203,9 @@
     <t>Intervenció General</t>
   </si>
   <si>
-    <t>Secretaria de Difusió</t>
-  </si>
-  <si>
     <t>Secretaria General de Salut</t>
   </si>
   <si>
-    <t>Secretaria General d'Acció Exterior i Govern Obert</t>
-  </si>
-  <si>
-    <t>Secretaria de Mobilitat i Logística</t>
-  </si>
-  <si>
-    <t>Secretaria d'Estratègia Territorial i Agenda Urbana</t>
-  </si>
-  <si>
     <t>Secretaria d'Administració i Funció Pública</t>
   </si>
   <si>
@@ -243,13 +216,40 @@
   </si>
   <si>
     <t>Departament de Justícia, Drets i Memòria</t>
+  </si>
+  <si>
+    <t>Secretaria de Mitjans de Comunicació i Difusió</t>
+  </si>
+  <si>
+    <t>Secretaria de Governs Locals i Relacions amb l'Aran</t>
+  </si>
+  <si>
+    <t>Secretaria General de Territori</t>
+  </si>
+  <si>
+    <t>Secretaria de Mobilitat i Infraestructures</t>
+  </si>
+  <si>
+    <t>Secretaria de Territori, Urbanisme i Agenda Urbana</t>
+  </si>
+  <si>
+    <t>Secretaria General d'Acció Exterior i Unió Europea</t>
+  </si>
+  <si>
+    <t>Secretaria d'Habitatge</t>
+  </si>
+  <si>
+    <t>22581</t>
+  </si>
+  <si>
+    <t>Secretaria de Telecomunicacions i Transformació Digital</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -280,6 +280,12 @@
     <font>
       <sz val="11"/>
       <color theme="0" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -338,7 +344,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -366,6 +372,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -482,7 +491,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla1" displayName="Tabla1" ref="A3:D53" totalsRowShown="0" dataDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla1" displayName="Tabla1" ref="A3:D52" totalsRowShown="0" dataDxfId="4">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:D52">
+    <sortCondition ref="C4:C52"/>
+  </sortState>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Id" dataDxfId="3"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Nom" dataDxfId="2" dataCellStyle="Normal_Hoja2"/>
@@ -756,9 +768,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D53"/>
+  <dimension ref="A1:D52"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -788,7 +800,7 @@
         <v>15</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -796,13 +808,13 @@
         <v>19781</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>17</v>
+        <v>61</v>
       </c>
       <c r="C4" s="3">
         <v>6</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -810,13 +822,13 @@
         <v>19033</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>19</v>
+        <v>62</v>
       </c>
       <c r="C5" s="3">
         <v>6</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -824,13 +836,13 @@
         <v>560</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="C6" s="3">
         <v>6</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -844,7 +856,7 @@
         <v>6</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -858,7 +870,7 @@
         <v>6</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -872,7 +884,7 @@
         <v>6</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -880,13 +892,13 @@
         <v>21654</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C10" s="3">
         <v>6</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -894,13 +906,13 @@
         <v>629</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C11" s="3">
         <v>6</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -908,13 +920,13 @@
         <v>556</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C12" s="3">
         <v>6</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -922,139 +934,139 @@
         <v>11</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C13" s="3">
         <v>6</v>
       </c>
       <c r="D13" s="12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C14" s="3">
+        <v>6</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3">
+        <v>15417</v>
+      </c>
+      <c r="B15" s="16" t="s">
         <v>18</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="3">
-        <v>15417</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C14" s="3">
-        <v>1599</v>
-      </c>
-      <c r="D14" s="12" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>1606</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>22</v>
       </c>
       <c r="C15" s="3">
         <v>1599</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>15755</v>
+        <v>1606</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C16" s="3">
-        <v>2221</v>
+        <v>1599</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>2228</v>
+        <v>15755</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C17" s="3">
         <v>2221</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>2811</v>
+        <v>2228</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>62</v>
+        <v>23</v>
       </c>
       <c r="C18" s="3">
-        <v>2803</v>
+        <v>2221</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>13827</v>
+        <v>2811</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>2</v>
+        <v>56</v>
       </c>
       <c r="C19" s="3">
         <v>2803</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="3">
-        <v>19029</v>
+      <c r="A20">
+        <v>13827</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C20" s="3">
         <v>2803</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
+        <v>19029</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21" s="3">
+        <v>2803</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="3">
         <v>3399</v>
       </c>
-      <c r="B21" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C21" s="3">
-        <v>3392</v>
-      </c>
-      <c r="D21" s="12" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22">
-        <v>19783</v>
-      </c>
       <c r="B22" s="7" t="s">
-        <v>7</v>
+        <v>63</v>
       </c>
       <c r="C22" s="3">
         <v>3392</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
@@ -1068,7 +1080,7 @@
         <v>3392</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
@@ -1082,161 +1094,161 @@
         <v>3392</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25">
+        <v>21702</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C25" s="3">
+        <v>3392</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26">
         <v>18120</v>
       </c>
-      <c r="B25" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C25" s="3">
-        <v>4163</v>
-      </c>
-      <c r="D25" s="12" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="3">
-        <v>4169</v>
-      </c>
       <c r="B26" s="7" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C26" s="3">
         <v>4163</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="14">
-        <v>21708</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>57</v>
+      <c r="A27" s="3">
+        <v>4169</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>27</v>
       </c>
       <c r="C27" s="3">
         <v>4163</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="14">
-        <v>11291</v>
+        <v>21708</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C28" s="3">
         <v>4163</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29">
-        <v>15771</v>
-      </c>
-      <c r="B29" s="7" t="s">
-        <v>31</v>
+      <c r="A29" s="14">
+        <v>11291</v>
+      </c>
+      <c r="B29" s="16" t="s">
+        <v>53</v>
       </c>
       <c r="C29" s="3">
-        <v>13757</v>
+        <v>4163</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>69</v>
+        <v>26</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>20919</v>
+        <v>15771</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="C30" s="3">
         <v>13757</v>
       </c>
       <c r="D30" s="12" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31">
-        <v>13763</v>
+        <v>20919</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="C31" s="3">
         <v>13757</v>
       </c>
       <c r="D31" s="12" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" s="3">
+      <c r="A32">
+        <v>13763</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C32" s="3">
+        <v>13757</v>
+      </c>
+      <c r="D32" s="12" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" s="3">
         <v>15650</v>
       </c>
-      <c r="B32" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C32" s="3">
+      <c r="B33" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C33" s="3">
         <v>13760</v>
       </c>
-      <c r="D32" s="12" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33">
-        <v>19776</v>
-      </c>
-      <c r="B33" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="C33" s="3">
-        <v>19769</v>
-      </c>
       <c r="D33" s="12" t="s">
-        <v>68</v>
+        <v>31</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34">
-        <v>13801</v>
+        <v>19776</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>35</v>
+        <v>66</v>
       </c>
       <c r="C34" s="3">
         <v>19769</v>
       </c>
       <c r="D34" s="12" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35" s="3">
-        <v>19794</v>
+      <c r="A35">
+        <v>13801</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C35" s="3">
         <v>19769</v>
       </c>
       <c r="D35" s="12" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
@@ -1244,27 +1256,27 @@
         <v>19777</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C36" s="3">
         <v>19772</v>
       </c>
       <c r="D36" s="12" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>19787</v>
       </c>
-      <c r="B37" s="7" t="s">
-        <v>39</v>
+      <c r="B37" s="8" t="s">
+        <v>35</v>
       </c>
       <c r="C37" s="3">
         <v>19772</v>
       </c>
       <c r="D37" s="12" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
@@ -1272,230 +1284,217 @@
         <v>19026</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C38" s="3">
         <v>19772</v>
       </c>
       <c r="D38" s="12" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="14">
         <v>1363</v>
       </c>
-      <c r="B39" s="5" t="s">
-        <v>60</v>
+      <c r="B39" s="16" t="s">
+        <v>55</v>
       </c>
       <c r="C39" s="3">
         <v>19772</v>
       </c>
       <c r="D39" s="12" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A40" s="14">
-        <v>19782</v>
-      </c>
-      <c r="B40" s="5" t="s">
-        <v>61</v>
+      <c r="A40">
+        <v>19800</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>4</v>
       </c>
       <c r="C40" s="3">
-        <v>19772</v>
+        <v>19774</v>
       </c>
       <c r="D40" s="12" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A41">
-        <v>19800</v>
+      <c r="A41" s="3">
+        <v>20853</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C41" s="3">
         <v>19774</v>
       </c>
       <c r="D41" s="12" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A42" s="3">
-        <v>20853</v>
+      <c r="A42">
+        <v>19779</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>5</v>
+        <v>37</v>
       </c>
       <c r="C42" s="3">
         <v>19774</v>
       </c>
       <c r="D42" s="12" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A43">
-        <v>21702</v>
+      <c r="A43" s="3">
+        <v>19780</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C43" s="3">
-        <v>19774</v>
+        <v>19775</v>
       </c>
       <c r="D43" s="12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44">
-        <v>19779</v>
+        <v>19035</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="C44" s="3">
-        <v>19774</v>
+        <v>19775</v>
       </c>
       <c r="D44" s="12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>21662</v>
+      </c>
+      <c r="B45" s="7" t="s">
         <v>40</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A45" s="3">
-        <v>19780</v>
-      </c>
-      <c r="B45" s="7" t="s">
-        <v>43</v>
       </c>
       <c r="C45" s="3">
         <v>19775</v>
       </c>
       <c r="D45" s="12" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46">
-        <v>19035</v>
+        <v>19783</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C46" s="3">
         <v>19775</v>
       </c>
       <c r="D46" s="12" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A47">
-        <v>21662</v>
-      </c>
-      <c r="B47" s="7" t="s">
-        <v>45</v>
+      <c r="A47" s="3">
+        <v>21649</v>
+      </c>
+      <c r="B47" s="8" t="s">
+        <v>41</v>
       </c>
       <c r="C47" s="3">
-        <v>19775</v>
+        <v>21647</v>
       </c>
       <c r="D47" s="12" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="3">
-        <v>21649</v>
-      </c>
-      <c r="B48" s="7" t="s">
-        <v>46</v>
+        <v>21675</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>43</v>
       </c>
       <c r="C48" s="3">
         <v>21647</v>
       </c>
       <c r="D48" s="12" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A49" s="3">
-        <v>21675</v>
+      <c r="A49" s="6">
+        <v>21674</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="C49" s="3">
+        <v>44</v>
+      </c>
+      <c r="C49" s="6">
         <v>21647</v>
       </c>
       <c r="D49" s="12" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A50" s="6">
-        <v>21674</v>
+      <c r="A50" s="3">
+        <v>15728</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="C50" s="6">
-        <v>21647</v>
+        <v>45</v>
+      </c>
+      <c r="C50" s="3">
+        <v>21648</v>
       </c>
       <c r="D50" s="12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A51" s="3">
-        <v>15728</v>
+      <c r="A51" s="14">
+        <v>99998</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="C51" s="3">
-        <v>21648</v>
+        <v>99998</v>
       </c>
       <c r="D51" s="12" t="s">
-        <v>51</v>
+        <v>8</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A52" s="14">
-        <v>99998</v>
-      </c>
-      <c r="B52" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C52" s="3">
-        <v>99998</v>
-      </c>
-      <c r="D52" s="12" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A53" s="15">
+      <c r="A52" s="15">
         <v>99999</v>
       </c>
-      <c r="B53" s="10" t="s">
+      <c r="B52" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C53" s="6">
+      <c r="C52" s="6">
         <v>99999</v>
       </c>
-      <c r="D53" s="13" t="s">
+      <c r="D52" s="13" t="s">
         <v>9</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="C54:C761" numberStoredAsText="1"/>
+    <ignoredError sqref="C53:C760 A14" numberStoredAsText="1"/>
   </ignoredErrors>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
@@ -1504,12 +1503,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1645,26 +1644,18 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6272B2A1-B407-4DF2-A2FE-9044F0D4B8B6}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BF65D252-1908-44E2-BB35-08282169E652}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1688,9 +1679,17 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BF65D252-1908-44E2-BB35-08282169E652}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6272B2A1-B407-4DF2-A2FE-9044F0D4B8B6}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/content/drafts/entitats/Secretaries.xlsx
+++ b/content/drafts/entitats/Secretaries.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gencat-my.sharepoint.com/personal/llorenc_franco_gencat_cat/Documents/01 - CTTI/Gestió interna/Treball remot/2019 - Dades de referència/__C6/01.CATaleg/10.Modelatge_OIAD/11.Secretaries/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\20 Cataleg\60 Modelatge\11.Secretaries\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="113" documentId="13_ncr:1_{4DBFBA37-82C6-4BCD-952D-353A91204E71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{178F5E46-CAAB-4F11-942B-CFBC739EF7E0}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A0E189B-C887-4DC5-89E1-0B2086EFB063}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Secretaries" sheetId="1" r:id="rId1"/>
@@ -131,9 +131,6 @@
     <t>Departament d'Interior</t>
   </si>
   <si>
-    <t>Secretaria d'Acció Exterior del Govern</t>
-  </si>
-  <si>
     <t>Secretaria General d'Economia i Hisenda</t>
   </si>
   <si>
@@ -243,6 +240,9 @@
   </si>
   <si>
     <t>Secretaria de Telecomunicacions i Transformació Digital</t>
+  </si>
+  <si>
+    <t>Secretaria d'Acció Exterior del Govern i de la Unió Europea</t>
   </si>
 </sst>
 </file>
@@ -800,7 +800,7 @@
         <v>15</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -808,7 +808,7 @@
         <v>19781</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C4" s="3">
         <v>6</v>
@@ -822,7 +822,7 @@
         <v>19033</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C5" s="3">
         <v>6</v>
@@ -836,7 +836,7 @@
         <v>560</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C6" s="3">
         <v>6</v>
@@ -892,7 +892,7 @@
         <v>21654</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C10" s="3">
         <v>6</v>
@@ -906,7 +906,7 @@
         <v>629</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C11" s="3">
         <v>6</v>
@@ -920,7 +920,7 @@
         <v>556</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C12" s="3">
         <v>6</v>
@@ -934,7 +934,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C13" s="3">
         <v>6</v>
@@ -945,10 +945,10 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B14" s="5" t="s">
         <v>68</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>69</v>
       </c>
       <c r="C14" s="3">
         <v>6</v>
@@ -1018,7 +1018,7 @@
         <v>2811</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C19" s="3">
         <v>2803</v>
@@ -1060,13 +1060,13 @@
         <v>3399</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C22" s="3">
         <v>3392</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
@@ -1074,13 +1074,13 @@
         <v>12660</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C23" s="3">
         <v>3392</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
@@ -1088,13 +1088,13 @@
         <v>21671</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C24" s="3">
         <v>3392</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
@@ -1102,13 +1102,13 @@
         <v>21702</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C25" s="3">
         <v>3392</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
@@ -1144,7 +1144,7 @@
         <v>21708</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C28" s="3">
         <v>4163</v>
@@ -1158,7 +1158,7 @@
         <v>11291</v>
       </c>
       <c r="B29" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C29" s="3">
         <v>4163</v>
@@ -1178,7 +1178,7 @@
         <v>13757</v>
       </c>
       <c r="D30" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
@@ -1192,7 +1192,7 @@
         <v>13757</v>
       </c>
       <c r="D31" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
@@ -1206,7 +1206,7 @@
         <v>13757</v>
       </c>
       <c r="D32" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
@@ -1228,13 +1228,13 @@
         <v>19776</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C34" s="3">
         <v>19769</v>
       </c>
       <c r="D34" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
@@ -1242,13 +1242,13 @@
         <v>13801</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>32</v>
+        <v>69</v>
       </c>
       <c r="C35" s="3">
         <v>19769</v>
       </c>
       <c r="D35" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
@@ -1256,13 +1256,13 @@
         <v>19777</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C36" s="3">
         <v>19772</v>
       </c>
       <c r="D36" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
@@ -1270,13 +1270,13 @@
         <v>19787</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C37" s="3">
         <v>19772</v>
       </c>
       <c r="D37" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
@@ -1284,13 +1284,13 @@
         <v>19026</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C38" s="3">
         <v>19772</v>
       </c>
       <c r="D38" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
@@ -1298,13 +1298,13 @@
         <v>1363</v>
       </c>
       <c r="B39" s="16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C39" s="3">
         <v>19772</v>
       </c>
       <c r="D39" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
@@ -1318,7 +1318,7 @@
         <v>19774</v>
       </c>
       <c r="D40" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
@@ -1332,7 +1332,7 @@
         <v>19774</v>
       </c>
       <c r="D41" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
@@ -1340,13 +1340,13 @@
         <v>19779</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C42" s="3">
         <v>19774</v>
       </c>
       <c r="D42" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
@@ -1354,13 +1354,13 @@
         <v>19780</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C43" s="3">
         <v>19775</v>
       </c>
       <c r="D43" s="12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
@@ -1374,7 +1374,7 @@
         <v>19775</v>
       </c>
       <c r="D44" s="12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
@@ -1382,13 +1382,13 @@
         <v>21662</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C45" s="3">
         <v>19775</v>
       </c>
       <c r="D45" s="12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
@@ -1402,7 +1402,7 @@
         <v>19775</v>
       </c>
       <c r="D46" s="12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
@@ -1410,13 +1410,13 @@
         <v>21649</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C47" s="3">
         <v>21647</v>
       </c>
       <c r="D47" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
@@ -1424,13 +1424,13 @@
         <v>21675</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C48" s="3">
         <v>21647</v>
       </c>
       <c r="D48" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
@@ -1438,13 +1438,13 @@
         <v>21674</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C49" s="6">
         <v>21647</v>
       </c>
       <c r="D49" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
@@ -1452,13 +1452,13 @@
         <v>15728</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C50" s="3">
         <v>21648</v>
       </c>
       <c r="D50" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
@@ -1503,26 +1503,35 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ae060729-66f1-4cea-a45e-be2331389c13">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010008DEA6A335D5DB4C80041820F961B988" ma:contentTypeVersion="1" ma:contentTypeDescription="Crea un document nou" ma:contentTypeScope="" ma:versionID="367d9f143660f58e8d16a0b6b83542cc">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="572ac8b42f3ef587f96d641b4f387de3" ns1:_="">
-    <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101005229F264C8D17E4290704F0F03417427" ma:contentTypeVersion="10" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="3ef69ce2871fbcc5f09479e4bf780f40">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ae060729-66f1-4cea-a45e-be2331389c13" xmlns:ns3="6ce25027-e1b1-4004-8de8-eb0ea08907a2" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1da067e5016208cce5150261eadc34a0" ns2:_="" ns3:_="">
+    <xsd:import namespace="ae060729-66f1-4cea-a45e-be2331389c13"/>
+    <xsd:import namespace="6ce25027-e1b1-4004-8de8-eb0ea08907a2"/>
     <xsd:element name="properties">
       <xsd:complexType>
         <xsd:sequence>
           <xsd:element name="documentManagement">
             <xsd:complexType>
               <xsd:all>
-                <xsd:element ref="ns1:PublishingStartDate" minOccurs="0"/>
-                <xsd:element ref="ns1:PublishingExpirationDate" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -1530,17 +1539,76 @@
       </xsd:complexType>
     </xsd:element>
   </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="http://schemas.microsoft.com/sharepoint/v3" elementFormDefault="qualified">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="ae060729-66f1-4cea-a45e-be2331389c13" elementFormDefault="qualified">
     <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="PublishingStartDate" ma:index="8" nillable="true" ma:displayName="Data d'inici de la planificació" ma:description="Data d'inici de la planificació és una columna del lloc creada per la característica de publicació. S'utilitza per especificar la data i l'hora en què aquesta pàgina començarà a aparèixer als visitants del lloc." ma:hidden="true" ma:internalName="PublishingStartDate">
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
       <xsd:simpleType>
-        <xsd:restriction base="dms:Unknown"/>
+        <xsd:restriction base="dms:Note"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="PublishingExpirationDate" ma:index="9" nillable="true" ma:displayName="Data de finalització de la planificació" ma:description="Data de finalització de la planificació és una columna del lloc creada per la característica de publicació. S'utilitza per especificar la data i l'hora en què aquesta pàgina deixarà d'aparèixer als visitants del lloc." ma:hidden="true" ma:internalName="PublishingExpirationDate">
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
       <xsd:simpleType>
-        <xsd:restriction base="dms:Unknown"/>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="11" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Etiquetas de imagen" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="d19f90c4-00d9-45b7-bc62-04f95cbe7a8b" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="12" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="13" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="14" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="15" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="6ce25027-e1b1-4004-8de8-eb0ea08907a2" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="SharedWithUsers" ma:index="16" nillable="true" ma:displayName="Compartido con" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="17" nillable="true" ma:displayName="Detalles de uso compartido" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
       </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
@@ -1553,8 +1621,8 @@
         <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Tipus de contingut"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Títol"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Tipo de contenido"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Título"/>
         <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
         <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
@@ -1644,41 +1712,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BF65D252-1908-44E2-BB35-08282169E652}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CCCF087E-4840-42B0-AE1E-9DBAC680D690}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6272B2A1-B407-4DF2-A2FE-9044F0D4B8B6}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
@@ -1692,4 +1734,16 @@
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{88E5150A-9305-460E-B7F0-5149679B0FE3}"/>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BF65D252-1908-44E2-BB35-08282169E652}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/content/drafts/entitats/Secretaries.xlsx
+++ b/content/drafts/entitats/Secretaries.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\20 Cataleg\60 Modelatge\11.Secretaries\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A0E189B-C887-4DC5-89E1-0B2086EFB063}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F79873B7-E97D-4BEE-9547-3F90362960B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -89,9 +89,6 @@
     <t>Departament de la Presidència</t>
   </si>
   <si>
-    <t>Secretaria de Transformació Educativa</t>
-  </si>
-  <si>
     <t>Departament d'Educació</t>
   </si>
   <si>
@@ -243,6 +240,9 @@
   </si>
   <si>
     <t>Secretaria d'Acció Exterior del Govern i de la Unió Europea</t>
+  </si>
+  <si>
+    <t>Secretaria de Polítiques Educatives</t>
   </si>
 </sst>
 </file>
@@ -800,7 +800,7 @@
         <v>15</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -808,7 +808,7 @@
         <v>19781</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C4" s="3">
         <v>6</v>
@@ -822,7 +822,7 @@
         <v>19033</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C5" s="3">
         <v>6</v>
@@ -836,7 +836,7 @@
         <v>560</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C6" s="3">
         <v>6</v>
@@ -892,7 +892,7 @@
         <v>21654</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C10" s="3">
         <v>6</v>
@@ -906,7 +906,7 @@
         <v>629</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C11" s="3">
         <v>6</v>
@@ -920,7 +920,7 @@
         <v>556</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C12" s="3">
         <v>6</v>
@@ -934,7 +934,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C13" s="3">
         <v>6</v>
@@ -945,10 +945,10 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B14" s="5" t="s">
         <v>67</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>68</v>
       </c>
       <c r="C14" s="3">
         <v>6</v>
@@ -962,13 +962,13 @@
         <v>15417</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>18</v>
+        <v>69</v>
       </c>
       <c r="C15" s="3">
         <v>1599</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
@@ -976,13 +976,13 @@
         <v>1606</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C16" s="3">
         <v>1599</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
@@ -990,13 +990,13 @@
         <v>15755</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C17" s="3">
         <v>2221</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
@@ -1004,13 +1004,13 @@
         <v>2228</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C18" s="3">
         <v>2221</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
@@ -1018,13 +1018,13 @@
         <v>2811</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C19" s="3">
         <v>2803</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
@@ -1038,7 +1038,7 @@
         <v>2803</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
@@ -1052,7 +1052,7 @@
         <v>2803</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
@@ -1060,13 +1060,13 @@
         <v>3399</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C22" s="3">
         <v>3392</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
@@ -1074,13 +1074,13 @@
         <v>12660</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C23" s="3">
         <v>3392</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
@@ -1088,13 +1088,13 @@
         <v>21671</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C24" s="3">
         <v>3392</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
@@ -1102,13 +1102,13 @@
         <v>21702</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C25" s="3">
         <v>3392</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
@@ -1116,13 +1116,13 @@
         <v>18120</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C26" s="3">
         <v>4163</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
@@ -1130,13 +1130,13 @@
         <v>4169</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C27" s="3">
         <v>4163</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
@@ -1144,13 +1144,13 @@
         <v>21708</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C28" s="3">
         <v>4163</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
@@ -1158,13 +1158,13 @@
         <v>11291</v>
       </c>
       <c r="B29" s="16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C29" s="3">
         <v>4163</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
@@ -1172,13 +1172,13 @@
         <v>15771</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C30" s="3">
         <v>13757</v>
       </c>
       <c r="D30" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
@@ -1192,7 +1192,7 @@
         <v>13757</v>
       </c>
       <c r="D31" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
@@ -1200,13 +1200,13 @@
         <v>13763</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C32" s="3">
         <v>13757</v>
       </c>
       <c r="D32" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
@@ -1214,13 +1214,13 @@
         <v>15650</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C33" s="3">
         <v>13760</v>
       </c>
       <c r="D33" s="12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
@@ -1228,13 +1228,13 @@
         <v>19776</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C34" s="3">
         <v>19769</v>
       </c>
       <c r="D34" s="12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
@@ -1242,13 +1242,13 @@
         <v>13801</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C35" s="3">
         <v>19769</v>
       </c>
       <c r="D35" s="12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
@@ -1256,13 +1256,13 @@
         <v>19777</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C36" s="3">
         <v>19772</v>
       </c>
       <c r="D36" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
@@ -1270,13 +1270,13 @@
         <v>19787</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C37" s="3">
         <v>19772</v>
       </c>
       <c r="D37" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
@@ -1284,13 +1284,13 @@
         <v>19026</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C38" s="3">
         <v>19772</v>
       </c>
       <c r="D38" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
@@ -1298,13 +1298,13 @@
         <v>1363</v>
       </c>
       <c r="B39" s="16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C39" s="3">
         <v>19772</v>
       </c>
       <c r="D39" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
@@ -1318,7 +1318,7 @@
         <v>19774</v>
       </c>
       <c r="D40" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
@@ -1332,7 +1332,7 @@
         <v>19774</v>
       </c>
       <c r="D41" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
@@ -1340,13 +1340,13 @@
         <v>19779</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C42" s="3">
         <v>19774</v>
       </c>
       <c r="D42" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
@@ -1354,13 +1354,13 @@
         <v>19780</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C43" s="3">
         <v>19775</v>
       </c>
       <c r="D43" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
@@ -1374,7 +1374,7 @@
         <v>19775</v>
       </c>
       <c r="D44" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
@@ -1382,13 +1382,13 @@
         <v>21662</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C45" s="3">
         <v>19775</v>
       </c>
       <c r="D45" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
@@ -1402,7 +1402,7 @@
         <v>19775</v>
       </c>
       <c r="D46" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
@@ -1410,13 +1410,13 @@
         <v>21649</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C47" s="3">
         <v>21647</v>
       </c>
       <c r="D47" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
@@ -1424,13 +1424,13 @@
         <v>21675</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C48" s="3">
         <v>21647</v>
       </c>
       <c r="D48" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
@@ -1438,13 +1438,13 @@
         <v>21674</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C49" s="6">
         <v>21647</v>
       </c>
       <c r="D49" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
@@ -1452,13 +1452,13 @@
         <v>15728</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C50" s="3">
         <v>21648</v>
       </c>
       <c r="D50" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
@@ -1503,16 +1503,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ae060729-66f1-4cea-a45e-be2331389c13">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101005229F264C8D17E4290704F0F03417427" ma:contentTypeVersion="10" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="3ef69ce2871fbcc5f09479e4bf780f40">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ae060729-66f1-4cea-a45e-be2331389c13" xmlns:ns3="6ce25027-e1b1-4004-8de8-eb0ea08907a2" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1da067e5016208cce5150261eadc34a0" ns2:_="" ns3:_="">
     <xsd:import namespace="ae060729-66f1-4cea-a45e-be2331389c13"/>
@@ -1711,6 +1701,16 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ae060729-66f1-4cea-a45e-be2331389c13">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -1721,6 +1721,25 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{88E5150A-9305-460E-B7F0-5149679B0FE3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="ae060729-66f1-4cea-a45e-be2331389c13"/>
+    <ds:schemaRef ds:uri="6ce25027-e1b1-4004-8de8-eb0ea08907a2"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6272B2A1-B407-4DF2-A2FE-9044F0D4B8B6}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
@@ -1732,12 +1751,9 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="ae060729-66f1-4cea-a45e-be2331389c13"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{88E5150A-9305-460E-B7F0-5149679B0FE3}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>

--- a/content/drafts/entitats/Secretaries.xlsx
+++ b/content/drafts/entitats/Secretaries.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\20 Cataleg\60 Modelatge\11.Secretaries\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gencat.sharepoint.com/sites/GovernanaArquitecturaCloudiSI-60_ARQDades/Documents compartits/60_ARQ Dades/20 Cataleg/60 Modelatge/11.Secretaries/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F79873B7-E97D-4BEE-9547-3F90362960B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{F79873B7-E97D-4BEE-9547-3F90362960B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{375B6E70-058E-46D8-81E5-9B05508D282D}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-1152" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Secretaries" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="56">
   <si>
     <t>Nom</t>
   </si>
@@ -71,9 +71,6 @@
     <t>Secretaries</t>
   </si>
   <si>
-    <t>Secretaria General de la Presidència</t>
-  </si>
-  <si>
     <t>Secretaria de Mesures Penals, Reinserció i Atenció a la Víctima</t>
   </si>
   <si>
@@ -92,18 +89,12 @@
     <t>Departament d'Educació</t>
   </si>
   <si>
-    <t>Secretaria General d'Educació</t>
-  </si>
-  <si>
     <t>Secretaria de Política Lingüística</t>
   </si>
   <si>
     <t>Departament de Cultura</t>
   </si>
   <si>
-    <t>Secretaria General de Cultura</t>
-  </si>
-  <si>
     <t>Departament de Salut</t>
   </si>
   <si>
@@ -113,24 +104,12 @@
     <t>Departament d'Acció Climàtica, Alimentació i Agenda Rural</t>
   </si>
   <si>
-    <t>Secretaria General d'Acció Climàtica, Alimentació i Agenda Rural</t>
-  </si>
-  <si>
     <t>Secretaria per a l'Administració de Justícia</t>
   </si>
   <si>
-    <t>Secretaria General de Justícia</t>
-  </si>
-  <si>
-    <t>Secretaria General d'Interior</t>
-  </si>
-  <si>
     <t>Departament d'Interior</t>
   </si>
   <si>
-    <t>Secretaria General d'Economia i Hisenda</t>
-  </si>
-  <si>
     <t>Departament d'Economia i Hisenda</t>
   </si>
   <si>
@@ -140,21 +119,12 @@
     <t>Departament de Drets Socials</t>
   </si>
   <si>
-    <t>Secretaria General de Drets Socials</t>
-  </si>
-  <si>
-    <t>Secretaria General d'Empresa i Treball</t>
-  </si>
-  <si>
     <t>Departament d'Empresa i Treball</t>
   </si>
   <si>
     <t>Secretaria de Treball</t>
   </si>
   <si>
-    <t>Secretaria General d'Igualtat i Feminismes</t>
-  </si>
-  <si>
     <t>Departament d'Igualtat i Feminismes</t>
   </si>
   <si>
@@ -164,9 +134,6 @@
     <t>Secretaria d'Igualtats</t>
   </si>
   <si>
-    <t>Secretaria General de Recerca i Universitats</t>
-  </si>
-  <si>
     <t>Departament de Recerca i Universitats</t>
   </si>
   <si>
@@ -197,9 +164,6 @@
     <t>Intervenció General</t>
   </si>
   <si>
-    <t>Secretaria General de Salut</t>
-  </si>
-  <si>
     <t>Secretaria d'Administració i Funció Pública</t>
   </si>
   <si>
@@ -218,24 +182,15 @@
     <t>Secretaria de Governs Locals i Relacions amb l'Aran</t>
   </si>
   <si>
-    <t>Secretaria General de Territori</t>
-  </si>
-  <si>
     <t>Secretaria de Mobilitat i Infraestructures</t>
   </si>
   <si>
     <t>Secretaria de Territori, Urbanisme i Agenda Urbana</t>
   </si>
   <si>
-    <t>Secretaria General d'Acció Exterior i Unió Europea</t>
-  </si>
-  <si>
     <t>Secretaria d'Habitatge</t>
   </si>
   <si>
-    <t>22581</t>
-  </si>
-  <si>
     <t>Secretaria de Telecomunicacions i Transformació Digital</t>
   </si>
   <si>
@@ -243,6 +198,9 @@
   </si>
   <si>
     <t>Secretaria de Polítiques Educatives</t>
+  </si>
+  <si>
+    <t>Secretaria General</t>
   </si>
 </sst>
 </file>
@@ -367,14 +325,14 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -783,7 +741,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>11</v>
@@ -797,10 +755,10 @@
         <v>0</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -808,13 +766,13 @@
         <v>19781</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="C4" s="3">
         <v>6</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -822,27 +780,27 @@
         <v>19033</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="C5" s="3">
         <v>6</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="3">
+      <c r="A6" s="15">
         <v>560</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="C6" s="3">
         <v>6</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -856,7 +814,7 @@
         <v>6</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -864,13 +822,13 @@
         <v>14</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="C8" s="3">
         <v>6</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -878,97 +836,97 @@
         <v>10828</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C9" s="3">
         <v>6</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="14">
+      <c r="A10" s="16">
         <v>21654</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="C10" s="3">
         <v>6</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="14">
+      <c r="A11" s="16">
         <v>629</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="C11" s="3">
         <v>6</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="14">
+      <c r="A12" s="16">
         <v>556</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="C12" s="3">
         <v>6</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="14">
+      <c r="A13" s="16">
         <v>11</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="C13" s="3">
         <v>6</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
-        <v>66</v>
+      <c r="A14" s="16">
+        <v>22581</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="C14" s="3">
         <v>6</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="3">
+      <c r="A15" s="15">
         <v>15417</v>
       </c>
-      <c r="B15" s="16" t="s">
-        <v>69</v>
+      <c r="B15" s="14" t="s">
+        <v>54</v>
       </c>
       <c r="C15" s="3">
         <v>1599</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
@@ -976,13 +934,13 @@
         <v>1606</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="C16" s="3">
         <v>1599</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
@@ -990,13 +948,13 @@
         <v>15755</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C17" s="3">
         <v>2221</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
@@ -1004,13 +962,13 @@
         <v>2228</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="C18" s="3">
         <v>2221</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
@@ -1018,13 +976,13 @@
         <v>2811</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C19" s="3">
         <v>2803</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
@@ -1038,11 +996,11 @@
         <v>2803</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="3">
+      <c r="A21" s="15">
         <v>19029</v>
       </c>
       <c r="B21" s="7" t="s">
@@ -1052,21 +1010,21 @@
         <v>2803</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="3">
+      <c r="A22" s="15">
         <v>3399</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C22" s="3">
         <v>3392</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
@@ -1074,27 +1032,27 @@
         <v>12660</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="C23" s="3">
         <v>3392</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="14">
+      <c r="A24" s="16">
         <v>21671</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="C24" s="3">
         <v>3392</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
@@ -1102,13 +1060,13 @@
         <v>21702</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="C25" s="3">
         <v>3392</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
@@ -1116,55 +1074,55 @@
         <v>18120</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C26" s="3">
         <v>4163</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="3">
+      <c r="A27" s="15">
         <v>4169</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>26</v>
+        <v>55</v>
       </c>
       <c r="C27" s="3">
         <v>4163</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" s="14">
+      <c r="A28" s="16">
         <v>21708</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="C28" s="3">
         <v>4163</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" s="14">
+      <c r="A29" s="16">
         <v>11291</v>
       </c>
-      <c r="B29" s="16" t="s">
-        <v>51</v>
+      <c r="B29" s="14" t="s">
+        <v>40</v>
       </c>
       <c r="C29" s="3">
         <v>4163</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
@@ -1172,13 +1130,13 @@
         <v>15771</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C30" s="3">
         <v>13757</v>
       </c>
       <c r="D30" s="12" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
@@ -1186,13 +1144,13 @@
         <v>20919</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C31" s="3">
         <v>13757</v>
       </c>
       <c r="D31" s="12" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
@@ -1200,27 +1158,27 @@
         <v>13763</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>28</v>
+        <v>55</v>
       </c>
       <c r="C32" s="3">
         <v>13757</v>
       </c>
       <c r="D32" s="12" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" s="3">
+      <c r="A33" s="15">
         <v>15650</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="C33" s="3">
         <v>13760</v>
       </c>
       <c r="D33" s="12" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
@@ -1228,13 +1186,13 @@
         <v>19776</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="C34" s="3">
         <v>19769</v>
       </c>
       <c r="D34" s="12" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
@@ -1242,13 +1200,13 @@
         <v>13801</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="C35" s="3">
         <v>19769</v>
       </c>
       <c r="D35" s="12" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
@@ -1256,13 +1214,13 @@
         <v>19777</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="C36" s="3">
         <v>19772</v>
       </c>
       <c r="D36" s="12" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
@@ -1270,41 +1228,41 @@
         <v>19787</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="C37" s="3">
         <v>19772</v>
       </c>
       <c r="D37" s="12" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A38" s="14">
+      <c r="A38" s="16">
         <v>19026</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="C38" s="3">
         <v>19772</v>
       </c>
       <c r="D38" s="12" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39" s="14">
+      <c r="A39" s="16">
         <v>1363</v>
       </c>
-      <c r="B39" s="16" t="s">
-        <v>53</v>
+      <c r="B39" s="14" t="s">
+        <v>42</v>
       </c>
       <c r="C39" s="3">
         <v>19772</v>
       </c>
       <c r="D39" s="12" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
@@ -1318,11 +1276,11 @@
         <v>19774</v>
       </c>
       <c r="D40" s="12" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A41" s="3">
+      <c r="A41" s="15">
         <v>20853</v>
       </c>
       <c r="B41" s="7" t="s">
@@ -1332,7 +1290,7 @@
         <v>19774</v>
       </c>
       <c r="D41" s="12" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
@@ -1340,27 +1298,27 @@
         <v>19779</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="C42" s="3">
         <v>19774</v>
       </c>
       <c r="D42" s="12" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A43" s="3">
+      <c r="A43" s="15">
         <v>19780</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="C43" s="3">
         <v>19775</v>
       </c>
       <c r="D43" s="12" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
@@ -1374,7 +1332,7 @@
         <v>19775</v>
       </c>
       <c r="D44" s="12" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
@@ -1382,13 +1340,13 @@
         <v>21662</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="C45" s="3">
         <v>19775</v>
       </c>
       <c r="D45" s="12" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
@@ -1402,67 +1360,67 @@
         <v>19775</v>
       </c>
       <c r="D46" s="12" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A47" s="3">
+      <c r="A47" s="15">
         <v>21649</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="C47" s="3">
         <v>21647</v>
       </c>
       <c r="D47" s="12" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A48" s="3">
+      <c r="A48" s="15">
         <v>21675</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="C48" s="3">
         <v>21647</v>
       </c>
       <c r="D48" s="12" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A49" s="6">
+      <c r="A49" s="15">
         <v>21674</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="C49" s="6">
         <v>21647</v>
       </c>
       <c r="D49" s="12" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A50" s="3">
+      <c r="A50" s="15">
         <v>15728</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="C50" s="3">
         <v>21648</v>
       </c>
       <c r="D50" s="12" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A51" s="14">
+      <c r="A51" s="16">
         <v>99998</v>
       </c>
       <c r="B51" s="5" t="s">
@@ -1476,7 +1434,7 @@
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A52" s="15">
+      <c r="A52" s="16">
         <v>99999</v>
       </c>
       <c r="B52" s="10" t="s">
@@ -1494,7 +1452,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="C53:C760 A14" numberStoredAsText="1"/>
+    <ignoredError sqref="C53:C760" numberStoredAsText="1"/>
   </ignoredErrors>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
@@ -1503,8 +1461,27 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101005229F264C8D17E4290704F0F03417427" ma:contentTypeVersion="10" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="3ef69ce2871fbcc5f09479e4bf780f40">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ae060729-66f1-4cea-a45e-be2331389c13" xmlns:ns3="6ce25027-e1b1-4004-8de8-eb0ea08907a2" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1da067e5016208cce5150261eadc34a0" ns2:_="" ns3:_="">
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ae060729-66f1-4cea-a45e-be2331389c13">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101005229F264C8D17E4290704F0F03417427" ma:contentTypeVersion="10" ma:contentTypeDescription="Crea un document nou" ma:contentTypeScope="" ma:versionID="c4029641765743d9f3f822339dfb1a4a">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ae060729-66f1-4cea-a45e-be2331389c13" xmlns:ns3="6ce25027-e1b1-4004-8de8-eb0ea08907a2" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="bb48281f5bf0bbe1ec1acda1c8ee6a0c" ns2:_="" ns3:_="">
     <xsd:import namespace="ae060729-66f1-4cea-a45e-be2331389c13"/>
     <xsd:import namespace="6ce25027-e1b1-4004-8de8-eb0ea08907a2"/>
     <xsd:element name="properties">
@@ -1542,7 +1519,7 @@
         <xsd:restriction base="dms:Note"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="11" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Etiquetas de imagen" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="d19f90c4-00d9-45b7-bc62-04f95cbe7a8b" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="11" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Etiquetes de la imatge" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="d19f90c4-00d9-45b7-bc62-04f95cbe7a8b" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
       <xsd:complexType>
         <xsd:sequence>
           <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
@@ -1575,7 +1552,7 @@
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="6ce25027-e1b1-4004-8de8-eb0ea08907a2" elementFormDefault="qualified">
     <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="SharedWithUsers" ma:index="16" nillable="true" ma:displayName="Compartido con" ma:internalName="SharedWithUsers" ma:readOnly="true">
+    <xsd:element name="SharedWithUsers" ma:index="16" nillable="true" ma:displayName="Compartit amb" ma:internalName="SharedWithUsers" ma:readOnly="true">
       <xsd:complexType>
         <xsd:complexContent>
           <xsd:extension base="dms:UserMulti">
@@ -1594,7 +1571,7 @@
         </xsd:complexContent>
       </xsd:complexType>
     </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="17" nillable="true" ma:displayName="Detalles de uso compartido" ma:internalName="SharedWithDetails" ma:readOnly="true">
+    <xsd:element name="SharedWithDetails" ma:index="17" nillable="true" ma:displayName="S'ha compartit amb detalls" ma:internalName="SharedWithDetails" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note">
           <xsd:maxLength value="255"/>
@@ -1611,8 +1588,8 @@
         <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Tipo de contenido"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Título"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Tipus de contingut"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Títol"/>
         <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
         <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
@@ -1701,45 +1678,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ae060729-66f1-4cea-a45e-be2331389c13">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{88E5150A-9305-460E-B7F0-5149679B0FE3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="ae060729-66f1-4cea-a45e-be2331389c13"/>
-    <ds:schemaRef ds:uri="6ce25027-e1b1-4004-8de8-eb0ea08907a2"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6272B2A1-B407-4DF2-A2FE-9044F0D4B8B6}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
@@ -1756,10 +1695,29 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BF65D252-1908-44E2-BB35-08282169E652}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1FDAA3AC-DF7A-4901-BD0D-6545F5475F4A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="ae060729-66f1-4cea-a45e-be2331389c13"/>
+    <ds:schemaRef ds:uri="6ce25027-e1b1-4004-8de8-eb0ea08907a2"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>